--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>-0.7015558851707349</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>-0.2226690179216506</v>
+        <v>1.245556224328537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>0.3590181115727287</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.324983933426882</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>-0.43917124526347</v>
+        <v>2.957479223435766</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.01587181126743165</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>-0.3900454704678369</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>-1.525733162071541</v>
+        <v>3.835144370775678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>-0.02256889165885845</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>-0.2995848153489522</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>-0.2490335193639504</v>
+        <v>-0.6757980944263386</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>0.09611428386597787</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.2075757021743008</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>-0.2996751125873498</v>
+        <v>-1.14533080410083</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>-0.1827723404408288</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.124712275190686</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>-0.8228063897167348</v>
+        <v>-0.9712385417624092</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>-0.001350220946483294</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>-0.255298189276465</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>-0.1707111385982674</v>
+        <v>0.6008487920565297</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>-0.075754880139145</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>0.07418514192796266</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>0.1154799992219901</v>
+        <v>-1.589980933184099</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>-0.5761528471665445</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>-0.07611406013281474</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>-0.4077088505149873</v>
+        <v>0.4501721032283079</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>-0.2011999787958185</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>-0.191300579729714</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>0.1141845444420087</v>
+        <v>-0.1501751374934579</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>0.1213692818849532</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>0.0970330232288763</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>-0.5466770281334576</v>
+        <v>1.204188598110267</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>0.1493219406571766</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>-0.7407518902333265</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>-0.881372672730163</v>
+        <v>2.372078088364726</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>-0.4278219446121612</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>0.3056679541520335</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-1.458903567332015</v>
+        <v>-2.378564786744741</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-1.026566979837418</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-1.388491535160907</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>-1.940932910995052</v>
+        <v>-3.329887238705409</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0.3179894933462268</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>-1.678482969789596</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-1.231410215360129</v>
+        <v>0.09136665742732752</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>0.463604920919658</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.5999457276250508</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-0.1139131196980059</v>
+        <v>-1.086119702215593</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.621639092134818</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-0.185520708596465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.05499271238530445</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-0.6768900623516982</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.1530558052845965</v>
+      <c r="E19">
+        <v>0.9196327481985289</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-3.329887238705409</v>
+        <v>-6.38174076944813</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>0.09136665742732752</v>
+        <v>-0.05914279202715589</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-1.086119702215593</v>
+        <v>-0.0517903667920816</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-0.185520708596465</v>
+        <v>-1.097580983230551</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.9196327481985289</v>
+        <v>2.831373241727242</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>-0.7015558851707349</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.245556224328537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.3590181115727287</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.957479223435766</v>
+        <v>2.957479223435744</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-0.01587181126743165</v>
+        <v>-0.01587181126745385</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>3.835144370775678</v>
+        <v>3.8351443707757</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +465,13 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>-0.02256889165885845</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="D5">
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>-0.6757980944263386</v>
+        <v>-0.6757980944263275</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +482,7 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>0.09611428386597787</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="D6">
         <v>2012</v>
@@ -514,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="E7">
-        <v>-0.9712385417624092</v>
+        <v>-0.971238541762387</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +516,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>-0.001350220946483294</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>0.6008487920565297</v>
+        <v>0.6008487920565075</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>-1.589980933184099</v>
+        <v>-1.58998093318411</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +550,13 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-0.5761528471665445</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>0.4501721032283079</v>
+        <v>0.4501721032283301</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>-0.1501751374934579</v>
+        <v>-0.150175137493469</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>2.372078088364726</v>
+        <v>2.372078088364704</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +618,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>-0.4278219446121612</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>-2.378564786744741</v>
+        <v>-2.378564786744752</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +635,7 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-1.026566979837418</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="D15">
         <v>2021</v>
@@ -678,7 +669,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>0.463604920919658</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -695,13 +686,13 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>0.621639092134818</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="D18">
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-1.097580983230551</v>
+        <v>-1.097580983230539</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +703,7 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>-0.6768900623516982</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="D19">
         <v>2025</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>2.831373241727242</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>1.049317648994741</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>0.72625340902297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
